--- a/Docu/calibration_2.xlsx
+++ b/Docu/calibration_2.xlsx
@@ -120,65 +120,89 @@
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>553623</c:v>
+                  <c:v>489626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>554055</c:v>
+                  <c:v>489833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1058849</c:v>
+                  <c:v>522454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1058945</c:v>
+                  <c:v>556738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1106037</c:v>
+                  <c:v>557410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1106374</c:v>
+                  <c:v>1101156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1107529</c:v>
+                  <c:v>1102799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1103307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1103992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1105360</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1107276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>115.3</c:v>
+                  <c:v>103.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.4</c:v>
+                  <c:v>103.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220.4</c:v>
+                  <c:v>110.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220.4</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>230.3</c:v>
+                  <c:v>117.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230.4</c:v>
+                  <c:v>233.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>230.7</c:v>
+                  <c:v>235.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>233.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>234.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>234.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -193,11 +217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103649792"/>
-        <c:axId val="103650368"/>
+        <c:axId val="45771008"/>
+        <c:axId val="71210624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103649792"/>
+        <c:axId val="45771008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -207,12 +231,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103650368"/>
+        <c:crossAx val="71210624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103650368"/>
+        <c:axId val="71210624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -223,7 +247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103649792"/>
+        <c:crossAx val="45771008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -274,7 +298,7 @@
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
-              <c:numFmt formatCode="0.000000" sourceLinked="0"/>
+              <c:numFmt formatCode="0.00000000" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -284,25 +308,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>550697</c:v>
+                  <c:v>478072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>551161</c:v>
+                  <c:v>479622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1051524</c:v>
+                  <c:v>510443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1052559</c:v>
+                  <c:v>510667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1099875</c:v>
+                  <c:v>543451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1100925</c:v>
+                  <c:v>1081999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1102573</c:v>
+                  <c:v>1085278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,25 +338,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>115.1</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.3</c:v>
+                  <c:v>103.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220.5</c:v>
+                  <c:v>109.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220.5</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>230.4</c:v>
+                  <c:v>117.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230.5</c:v>
+                  <c:v>233.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>230.9</c:v>
+                  <c:v>233.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,11 +371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103652096"/>
-        <c:axId val="103652672"/>
+        <c:axId val="41177024"/>
+        <c:axId val="41177600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103652096"/>
+        <c:axId val="41177024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,12 +385,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103652672"/>
+        <c:crossAx val="41177600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103652672"/>
+        <c:axId val="41177600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103652096"/>
+        <c:crossAx val="41177024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -438,52 +462,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>34923</c:v>
+                  <c:v>29624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34943</c:v>
+                  <c:v>29633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34995</c:v>
+                  <c:v>29736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35223</c:v>
+                  <c:v>29743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61484</c:v>
+                  <c:v>58524</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61549</c:v>
+                  <c:v>58546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61565</c:v>
+                  <c:v>58509</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61586</c:v>
+                  <c:v>58480</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90930</c:v>
+                  <c:v>88516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91118</c:v>
+                  <c:v>88513</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91124</c:v>
+                  <c:v>88482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91128</c:v>
+                  <c:v>88514</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120210</c:v>
+                  <c:v>117366</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120300</c:v>
+                  <c:v>117379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>120332</c:v>
+                  <c:v>117401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120355</c:v>
+                  <c:v>117397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,16 +519,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
@@ -519,16 +543,16 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.8</c:v>
@@ -555,11 +579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110691456"/>
-        <c:axId val="110692032"/>
+        <c:axId val="41179328"/>
+        <c:axId val="41179904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110691456"/>
+        <c:axId val="41179328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,12 +593,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110692032"/>
+        <c:crossAx val="41179904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110692032"/>
+        <c:axId val="41179904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,7 +609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110691456"/>
+        <c:crossAx val="41179328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -646,52 +670,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>28917</c:v>
+                  <c:v>49477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28922</c:v>
+                  <c:v>49496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28932</c:v>
+                  <c:v>49493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28894</c:v>
+                  <c:v>49471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58771</c:v>
+                  <c:v>71464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58783</c:v>
+                  <c:v>71482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58788</c:v>
+                  <c:v>71491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58798</c:v>
+                  <c:v>71512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87966</c:v>
+                  <c:v>97290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87960</c:v>
+                  <c:v>97391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87945</c:v>
+                  <c:v>97424</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88000</c:v>
+                  <c:v>97362</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117329</c:v>
+                  <c:v>124997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>117239</c:v>
+                  <c:v>124960</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117234</c:v>
+                  <c:v>124872</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117300</c:v>
+                  <c:v>124833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,16 +727,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
@@ -763,11 +787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110693760"/>
-        <c:axId val="110694336"/>
+        <c:axId val="71211200"/>
+        <c:axId val="71211776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110693760"/>
+        <c:axId val="71211200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,12 +801,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110694336"/>
+        <c:crossAx val="71211776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110694336"/>
+        <c:axId val="71211776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110693760"/>
+        <c:crossAx val="71211200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -819,16 +843,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -850,15 +874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -879,16 +903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -910,15 +934,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1229,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,251 +1291,299 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>34923</v>
+        <v>29624</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>28917</v>
+        <v>49477</v>
       </c>
       <c r="D2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>553623</v>
+        <v>489626</v>
       </c>
       <c r="F2">
-        <v>115.3</v>
+        <v>103.7</v>
       </c>
       <c r="G2">
-        <v>550697</v>
+        <v>478072</v>
       </c>
       <c r="H2">
-        <v>115.1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34943</v>
+        <v>29633</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>28922</v>
+        <v>49496</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>554055</v>
+        <v>489833</v>
       </c>
       <c r="F3">
-        <v>115.4</v>
+        <v>103.6</v>
       </c>
       <c r="G3">
-        <v>551161</v>
+        <v>479622</v>
       </c>
       <c r="H3">
-        <v>115.3</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>34995</v>
+        <v>29736</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>28932</v>
+        <v>49493</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>1058849</v>
+        <v>522454</v>
       </c>
       <c r="F4">
-        <v>220.4</v>
+        <v>110.5</v>
       </c>
       <c r="G4">
-        <v>1051524</v>
+        <v>510443</v>
       </c>
       <c r="H4">
-        <v>220.5</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>35223</v>
+        <v>29743</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>28894</v>
+        <v>49471</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>1058945</v>
+        <v>556738</v>
       </c>
       <c r="F5">
-        <v>220.4</v>
+        <v>117.8</v>
       </c>
       <c r="G5">
-        <v>1052559</v>
+        <v>510667</v>
       </c>
       <c r="H5">
-        <v>220.5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61484</v>
+        <v>58524</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>58771</v>
+        <v>71464</v>
       </c>
       <c r="D6">
         <v>0.9</v>
       </c>
       <c r="E6">
-        <v>1106037</v>
+        <v>557410</v>
       </c>
       <c r="F6">
-        <v>230.3</v>
+        <v>117.9</v>
       </c>
       <c r="G6">
-        <v>1099875</v>
+        <v>543451</v>
       </c>
       <c r="H6">
-        <v>230.4</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>61549</v>
+        <v>58546</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>58783</v>
+        <v>71482</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="E7">
-        <v>1106374</v>
+        <v>1101156</v>
       </c>
       <c r="F7">
-        <v>230.4</v>
+        <v>233.2</v>
       </c>
       <c r="G7">
-        <v>1100925</v>
+        <v>1081999</v>
       </c>
       <c r="H7">
-        <v>230.5</v>
+        <v>233.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>61565</v>
+        <v>58509</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>58788</v>
+        <v>71491</v>
       </c>
       <c r="D8">
         <v>0.9</v>
       </c>
       <c r="E8">
-        <v>1107529</v>
+        <v>1102799</v>
       </c>
       <c r="F8">
-        <v>230.7</v>
+        <v>235.7</v>
       </c>
       <c r="G8">
-        <v>1102573</v>
+        <v>1085278</v>
       </c>
       <c r="H8">
-        <v>230.9</v>
+        <v>233.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>61586</v>
+        <v>58480</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>58798</v>
+        <v>71512</v>
       </c>
       <c r="D9">
         <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>1103307</v>
+      </c>
+      <c r="F9">
+        <v>233.6</v>
+      </c>
+      <c r="G9">
+        <v>1086347</v>
+      </c>
+      <c r="H9">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>90930</v>
+        <v>88516</v>
       </c>
       <c r="B10">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C10">
-        <v>87966</v>
+        <v>97290</v>
       </c>
       <c r="D10">
         <v>1.3</v>
+      </c>
+      <c r="E10">
+        <v>1103992</v>
+      </c>
+      <c r="F10">
+        <v>233.8</v>
+      </c>
+      <c r="G10">
+        <v>1086418</v>
+      </c>
+      <c r="H10">
+        <v>234.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>91118</v>
+        <v>88513</v>
       </c>
       <c r="B11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C11">
-        <v>87960</v>
+        <v>97391</v>
       </c>
       <c r="D11">
         <v>1.3</v>
+      </c>
+      <c r="E11">
+        <v>1105360</v>
+      </c>
+      <c r="F11">
+        <v>234.1</v>
+      </c>
+      <c r="G11">
+        <v>1086500</v>
+      </c>
+      <c r="H11">
+        <v>234.1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>91124</v>
+        <v>88482</v>
       </c>
       <c r="B12">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C12">
-        <v>87945</v>
+        <v>97424</v>
       </c>
       <c r="D12">
         <v>1.3</v>
+      </c>
+      <c r="E12">
+        <v>1107276</v>
+      </c>
+      <c r="F12">
+        <v>234.5</v>
+      </c>
+      <c r="G12">
+        <v>1086892</v>
+      </c>
+      <c r="H12">
+        <v>234.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>91128</v>
+        <v>88514</v>
       </c>
       <c r="B13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C13">
-        <v>88000</v>
+        <v>97362</v>
       </c>
       <c r="D13">
         <v>1.3</v>
@@ -1519,13 +1591,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>120210</v>
+        <v>117366</v>
       </c>
       <c r="B14">
         <v>1.8</v>
       </c>
       <c r="C14">
-        <v>117329</v>
+        <v>124997</v>
       </c>
       <c r="D14">
         <v>1.8</v>
@@ -1533,13 +1605,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>120300</v>
+        <v>117379</v>
       </c>
       <c r="B15">
         <v>1.8</v>
       </c>
       <c r="C15">
-        <v>117239</v>
+        <v>124960</v>
       </c>
       <c r="D15">
         <v>1.8</v>
@@ -1547,13 +1619,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>120332</v>
+        <v>117401</v>
       </c>
       <c r="B16">
         <v>1.8</v>
       </c>
       <c r="C16">
-        <v>117234</v>
+        <v>124872</v>
       </c>
       <c r="D16">
         <v>1.8</v>
@@ -1561,21 +1633,21 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>120355</v>
+        <v>117397</v>
       </c>
       <c r="B17">
         <v>1.8</v>
       </c>
       <c r="C17">
-        <v>117300</v>
+        <v>124833</v>
       </c>
       <c r="D17">
         <v>1.8</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:D17">
-    <sortCondition ref="C2"/>
+  <sortState ref="E2:F12">
+    <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
